--- a/xlsx/a69_f48_aUPPachuca.xlsx
+++ b/xlsx/a69_f48_aUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2DA ENTREGA DEL REPORTE DE LAS 48 FRACCIONES COMUNES\ENTREGA 3ER TRIMESTRE DE LAS 48 FRACIONES COMUNES\Vo. Bo. #1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\MAYDELI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -234,10 +234,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +586,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -718,10 +718,10 @@
         <v>2020</v>
       </c>
       <c r="B8" s="6">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C8" s="6">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>36</v>
@@ -736,10 +736,10 @@
         <v>34</v>
       </c>
       <c r="H8" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="I8" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J8" s="2"/>
     </row>

--- a/xlsx/a69_f48_aUPPachuca.xlsx
+++ b/xlsx/a69_f48_aUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\MAYDELI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -226,6 +226,9 @@
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -547,7 +550,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,38 +573,38 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -668,18 +671,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -714,20 +717,20 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2020</v>
+      <c r="A8" s="7">
+        <v>2021</v>
       </c>
       <c r="B8" s="6">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C8" s="6">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="3">
-        <v>44114</v>
+        <v>44298</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>35</v>
@@ -735,11 +738,11 @@
       <c r="G8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="3">
-        <v>44206</v>
-      </c>
-      <c r="I8" s="3">
-        <v>44206</v>
+      <c r="H8" s="6">
+        <v>44298</v>
+      </c>
+      <c r="I8" s="6">
+        <v>44298</v>
       </c>
       <c r="J8" s="2"/>
     </row>

--- a/xlsx/a69_f48_aUPPachuca.xlsx
+++ b/xlsx/a69_f48_aUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -182,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -205,12 +205,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -239,7 +248,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -550,7 +562,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +570,7 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.5703125" customWidth="1"/>
+    <col min="4" max="4" width="84.28515625" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="73.140625" bestFit="1" customWidth="1"/>
@@ -604,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -721,16 +733,16 @@
         <v>2021</v>
       </c>
       <c r="B8" s="6">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="6">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>35</v>
@@ -739,10 +751,10 @@
         <v>34</v>
       </c>
       <c r="H8" s="6">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I8" s="6">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J8" s="2"/>
     </row>

--- a/xlsx/a69_f48_aUPPachuca.xlsx
+++ b/xlsx/a69_f48_aUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -219,15 +219,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -562,7 +559,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,38 +582,38 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -683,18 +680,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -729,32 +726,32 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>2021</v>
       </c>
-      <c r="B8" s="6">
-        <v>44287</v>
-      </c>
-      <c r="C8" s="6">
-        <v>44377</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44469</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="3">
-        <v>44386</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="5">
+        <v>44480</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="6">
-        <v>44386</v>
-      </c>
-      <c r="I8" s="6">
-        <v>44386</v>
+      <c r="H8" s="5">
+        <v>44480</v>
+      </c>
+      <c r="I8" s="5">
+        <v>44480</v>
       </c>
       <c r="J8" s="2"/>
     </row>

--- a/xlsx/a69_f48_aUPPachuca.xlsx
+++ b/xlsx/a69_f48_aUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,16 +730,16 @@
         <v>2021</v>
       </c>
       <c r="B8" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C8" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>35</v>
@@ -748,10 +748,10 @@
         <v>34</v>
       </c>
       <c r="H8" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="I8" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="J8" s="2"/>
     </row>

--- a/xlsx/a69_f48_aUPPachuca.xlsx
+++ b/xlsx/a69_f48_aUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -312,7 +307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,7 +342,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -558,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,19 +722,19 @@
     </row>
     <row r="8" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="5">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="5">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="5">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>35</v>
@@ -748,10 +743,10 @@
         <v>34</v>
       </c>
       <c r="H8" s="5">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I8" s="5">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J8" s="2"/>
     </row>

--- a/xlsx/a69_f48_aUPPachuca.xlsx
+++ b/xlsx/a69_f48_aUPPachuca.xlsx
@@ -144,11 +144,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -553,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,16 +727,16 @@
         <v>2022</v>
       </c>
       <c r="B8" s="5">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="5">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="5">
-        <v>44659</v>
+        <v>44742</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>35</v>
@@ -743,10 +745,10 @@
         <v>34</v>
       </c>
       <c r="H8" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I8" s="5">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J8" s="2"/>
     </row>

--- a/xlsx/a69_f48_aUPPachuca.xlsx
+++ b/xlsx/a69_f48_aUPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B4D81C2-3078-4453-B18F-3AB024C650FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -130,7 +136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -225,7 +231,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -242,7 +248,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -309,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,9 +348,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,6 +400,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -552,11 +592,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,16 +767,16 @@
         <v>2022</v>
       </c>
       <c r="B8" s="5">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="5">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="5">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>35</v>
@@ -745,10 +785,10 @@
         <v>34</v>
       </c>
       <c r="H8" s="5">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I8" s="5">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -763,7 +803,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/xlsx/a69_f48_aUPPachuca.xlsx
+++ b/xlsx/a69_f48_aUPPachuca.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B4D81C2-3078-4453-B18F-3AB024C650FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC4F1F54-E635-40E2-AE81-033DB2E673F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,16 +767,16 @@
         <v>2022</v>
       </c>
       <c r="B8" s="5">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C8" s="5">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="5">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>35</v>
@@ -785,10 +785,10 @@
         <v>34</v>
       </c>
       <c r="H8" s="5">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="I8" s="5">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="J8" s="2"/>
     </row>

--- a/xlsx/a69_f48_aUPPachuca.xlsx
+++ b/xlsx/a69_f48_aUPPachuca.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC4F1F54-E635-40E2-AE81-033DB2E673F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-180" windowWidth="15600" windowHeight="11220"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -136,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -315,7 +309,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,26 +342,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,23 +377,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -592,11 +552,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,19 +724,19 @@
     </row>
     <row r="8" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="5">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="5">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="5">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>35</v>
@@ -785,10 +745,10 @@
         <v>34</v>
       </c>
       <c r="H8" s="5">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="I8" s="5">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -803,7 +763,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/xlsx/a69_f48_aUPPachuca.xlsx
+++ b/xlsx/a69_f48_aUPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\2DO TRIMESTRE 2023\Pagina Oficial 2do Trimestre 2023\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28BF1269-C971-4749-A8C7-E5081EBCFF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-180" windowWidth="15600" windowHeight="11220"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>46817</t>
   </si>
@@ -28,13 +34,13 @@
     <t>DESCRIPCIÓN</t>
   </si>
   <si>
-    <t>Más información relacionada_Información de interés público</t>
+    <t>Información de interés público</t>
   </si>
   <si>
     <t>a69_f48_a</t>
   </si>
   <si>
-    <t>La información de interés público podrá ser, de manera enunciativa y no limitativa: informes especiales, reportes de resultados, estudios, indicadores, investigaciones, campañas, alertas, prevenciones, mecanismos de participación ciudadana, acceso a servicios</t>
+    <t>La información de interés público es obligatoria tanto en su identificación como en su publicación, podrá ser, de manera enunciativa y no limitativa: informes especiales, reportes de resultados, estudios, indicadores, investigaciones, campañas, alertas, prevenciones, mecanismos de participación ciudadana, acceso a servicios y aquella determinada por el Organismo Garante en el catálogo de interés público</t>
   </si>
   <si>
     <t>1</t>
@@ -97,13 +103,13 @@
     <t>Fecha de término del periodo que se informa</t>
   </si>
   <si>
-    <t>Descripción breve, clara y precisa que dé cuenta del contenido de la información</t>
+    <t>Descripción breve, clara y precisa del contenido de la información (Redactados con perspectiva de género)</t>
   </si>
   <si>
     <t xml:space="preserve">Fecha de elaboración </t>
   </si>
   <si>
-    <t>Hipervínculo a la información, documentos o datos respectivos</t>
+    <t>Hipervínculo a la información, documento(s) o datos respectivos y a la determinada por el Organismo garante en el catálogo de interés público.</t>
   </si>
   <si>
     <t>Área(s) responsable(s) que genera(n), posee(n), publica(n) y actualizan la información</t>
@@ -118,20 +124,29 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>Departamento de Idiomas y Lenguas (UPP)</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/cal/</t>
-  </si>
-  <si>
-    <t>El Centro de Aprendizaje de Lenguas (CAL) es un centro que permite la promoción, divulgación y aprendizaje de las lenguas nacionales e idiomas internacionales, además de la cultura y arte para fortalecer la identidad nacional como mexicanos en un contexto mundial.</t>
+    <t>Unidad de Transparencia Gubernamental (UPP)</t>
+  </si>
+  <si>
+    <t>Eduacación a Distancia UPP</t>
+  </si>
+  <si>
+    <t>Oferta Educativa UPP</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/adistancia/</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/ofertaeducativa/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -153,6 +168,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -161,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +193,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
     <fill>
@@ -203,55 +230,57 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="4">
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
+    <cellStyle name="Moneda 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -309,7 +338,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,9 +371,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,6 +423,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -552,11 +615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,13 +627,13 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.28515625" customWidth="1"/>
+    <col min="4" max="4" width="90.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="121.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -579,37 +642,37 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -677,18 +740,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -722,35 +785,65 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2023</v>
       </c>
-      <c r="B8" s="5">
-        <v>44927</v>
-      </c>
-      <c r="C8" s="5">
-        <v>45016</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="B8" s="4">
+        <v>45017</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45107</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45117</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="4">
+        <v>45117</v>
+      </c>
+      <c r="I8" s="4">
+        <v>45117</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45017</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45107</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="5">
-        <v>45016</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="E9" s="4">
+        <v>45117</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="5">
-        <v>45026</v>
-      </c>
-      <c r="I8" s="5">
-        <v>45026</v>
-      </c>
-      <c r="J8" s="2"/>
+      <c r="H9" s="4">
+        <v>45117</v>
+      </c>
+      <c r="I9" s="4">
+        <v>45117</v>
+      </c>
+      <c r="J9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -763,9 +856,9 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>